--- a/cronograma/Cronograma - Projeto Aplicado II.xlsx
+++ b/cronograma/Cronograma - Projeto Aplicado II.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isidoroe\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C7A79B-E77B-4B02-98DD-137CFC179185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Etapa</t>
   </si>
@@ -167,9 +184,6 @@
   </si>
   <si>
     <t>Apresentação do storytelling</t>
-  </si>
-  <si>
-    <t>Danilo / Carlos</t>
   </si>
   <si>
     <t>Github</t>
@@ -196,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd"/>
@@ -520,35 +534,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +547,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,14 +685,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,9 +733,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,9 +768,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,9 +820,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -961,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1504,7 @@
       </c>
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -1587,8 +1638,8 @@
       <c r="DI5" s="12"/>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1717,8 +1768,8 @@
       <c r="DI6" s="12"/>
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1847,8 +1898,8 @@
       <c r="DI7" s="12"/>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1977,8 +2028,8 @@
       <c r="DI8" s="12"/>
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2107,8 +2158,8 @@
       <c r="DI9" s="12"/>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2237,8 +2288,8 @@
       <c r="DI10" s="12"/>
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2367,8 +2418,8 @@
       <c r="DI11" s="12"/>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2497,9 +2548,9 @@
       <c r="DI12" s="12"/>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="39" t="s">
-        <v>58</v>
+      <c r="A13" s="36"/>
+      <c r="B13" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -2629,7 +2680,7 @@
       <c r="DI13" s="12"/>
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2655,7 +2706,7 @@
         <v>45570</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="12"/>
@@ -2684,10 +2735,10 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="12"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
       <c r="AO14" s="12"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -2763,7 +2814,7 @@
       <c r="DI14" s="12"/>
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="31" t="s">
         <v>36</v>
       </c>
@@ -2771,7 +2822,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
         <v>45553</v>
@@ -2787,7 +2838,7 @@
         <v>45570</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
@@ -2819,12 +2870,12 @@
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
       <c r="AT15" s="12"/>
       <c r="AU15" s="12"/>
       <c r="AV15" s="12"/>
@@ -2895,8 +2946,8 @@
       <c r="DI15" s="12"/>
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2917,7 +2968,7 @@
         <v>45570</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="12"/>
@@ -2954,10 +3005,10 @@
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
       <c r="AY16" s="12"/>
@@ -3025,8 +3076,8 @@
       <c r="DI16" s="12"/>
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
@@ -3047,7 +3098,7 @@
         <v>45570</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="12"/>
@@ -3087,10 +3138,10 @@
       <c r="AS17" s="12"/>
       <c r="AT17" s="12"/>
       <c r="AU17" s="12"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
       <c r="BB17" s="12"/>
@@ -3155,8 +3206,8 @@
       <c r="DI17" s="12"/>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -3177,7 +3228,7 @@
         <v>45570</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="12"/>
@@ -3220,10 +3271,10 @@
       <c r="AV18" s="12"/>
       <c r="AW18" s="12"/>
       <c r="AX18" s="12"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
       <c r="BC18" s="12"/>
       <c r="BD18" s="12"/>
       <c r="BE18" s="12"/>
@@ -3285,15 +3336,15 @@
       <c r="DI18" s="12"/>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E19" s="6">
         <v>45568</v>
@@ -3309,7 +3360,7 @@
         <v>45570</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12"/>
@@ -3356,9 +3407,9 @@
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
       <c r="BB19" s="12"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
       <c r="BH19" s="12"/>
@@ -3417,7 +3468,7 @@
       <c r="DI19" s="12"/>
     </row>
     <row r="20" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="34">
         <v>3</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -3426,8 +3477,8 @@
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>48</v>
+      <c r="D20" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E20" s="2">
         <v>45571</v>
@@ -3551,8 +3602,8 @@
       <c r="DI20" s="12"/>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
@@ -3681,13 +3732,13 @@
       <c r="DI21" s="12"/>
     </row>
     <row r="22" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>20</v>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E22" s="2">
         <v>45584</v>
@@ -3811,8 +3862,8 @@
       <c r="DI22" s="12"/>
     </row>
     <row r="23" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -3943,14 +3994,14 @@
       <c r="DI23" s="12"/>
     </row>
     <row r="24" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="2">
@@ -4075,17 +4126,17 @@
       <c r="DI24" s="12"/>
     </row>
     <row r="25" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="34">
         <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
+      <c r="D25" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="2">
         <v>45599</v>
@@ -4209,7 +4260,7 @@
       <c r="DI25" s="12"/>
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="31" t="s">
         <v>42</v>
       </c>
@@ -4341,13 +4392,13 @@
       <c r="DI26" s="12"/>
     </row>
     <row r="27" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E27" s="2">
         <v>45614</v>
@@ -4471,15 +4522,15 @@
       <c r="DI27" s="12"/>
     </row>
     <row r="28" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>45611</v>
@@ -4603,7 +4654,7 @@
       <c r="DI28" s="12"/>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
@@ -4611,7 +4662,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2">
         <v>45616</v>
@@ -4722,10 +4773,10 @@
       <c r="CV29" s="12"/>
       <c r="CW29" s="12"/>
       <c r="CX29" s="12"/>
-      <c r="CY29" s="38"/>
-      <c r="CZ29" s="38"/>
-      <c r="DA29" s="38"/>
-      <c r="DB29" s="38"/>
+      <c r="CY29" s="27"/>
+      <c r="CZ29" s="27"/>
+      <c r="DA29" s="27"/>
+      <c r="DB29" s="27"/>
       <c r="DC29" s="12"/>
       <c r="DD29" s="12"/>
       <c r="DE29" s="12"/>
@@ -4748,11 +4799,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J3:V3"/>
-    <mergeCell ref="W3:AZ3"/>
-    <mergeCell ref="BA3:CE3"/>
-    <mergeCell ref="CF3:DI3"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="B15:B18"/>
@@ -4760,6 +4806,11 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
+    <mergeCell ref="J3:V3"/>
+    <mergeCell ref="W3:AZ3"/>
+    <mergeCell ref="BA3:CE3"/>
+    <mergeCell ref="CF3:DI3"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:I29">
     <cfRule type="expression" dxfId="12" priority="12">
